--- a/reports/Test Run/report_20250714T060725Z.xlsx
+++ b/reports/Test Run/report_20250714T060725Z.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\Insidious\reports\Test Run\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8652E550-7BB8-4824-AD0B-2C6AC790CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
   <si>
     <t>bucket_owner</t>
   </si>
@@ -115,12 +121,6 @@
     <t>[08/Jul/2025:01:18:41 +0000]</t>
   </si>
   <si>
-    <t>192.0.2.10</t>
-  </si>
-  <si>
-    <t>158.62.32.52</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -272,13 +272,16 @@
   </si>
   <si>
     <t>S3_Recon_T1580.003</t>
+  </si>
+  <si>
+    <t>104.28.226.107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,13 +357,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +409,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -432,6 +443,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -466,9 +478,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,14 +654,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -742,73 +757,73 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -822,73 +837,73 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" t="s">
         <v>76</v>
       </c>
-      <c r="V3" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s">
-        <v>78</v>
-      </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -902,73 +917,73 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -982,73 +997,73 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
         <v>77</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
       <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
         <v>80</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>82</v>
       </c>
-      <c r="Z5" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1062,73 +1077,73 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1142,73 +1157,73 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s">
         <v>75</v>
       </c>
-      <c r="U7" t="s">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>77</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>79</v>
       </c>
-      <c r="X7" t="s">
-        <v>81</v>
-      </c>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1222,77 +1237,77 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
         <v>77</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>79</v>
       </c>
-      <c r="X8" t="s">
-        <v>81</v>
-      </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1"/>
-    <hyperlink ref="Q7" r:id="rId2"/>
-    <hyperlink ref="Q8" r:id="rId3"/>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
